--- a/Documentation/Counter_Test_Cases.xlsx
+++ b/Documentation/Counter_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\LTTS\FPGA Training\Projects\Verilog\StopWatch_Verilog\git_repo\Time_Travelers_Verilog_Stopwatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB5D21-1468-4A8F-9A40-FFD88F7A5949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D70C6-EC38-48F5-BD40-F6CEC9ED7D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -57,24 +57,6 @@
     <t>Git Commit</t>
   </si>
   <si>
-    <t>EX</t>
-  </si>
-  <si>
-    <t>EX_1</t>
-  </si>
-  <si>
-    <t>Summary of requirement</t>
-  </si>
-  <si>
-    <t>Description of test bench procedure</t>
-  </si>
-  <si>
-    <t>Specific signal values</t>
-  </si>
-  <si>
-    <t>Update to most recent trial</t>
-  </si>
-  <si>
     <t>COUNTER_RESET_01</t>
   </si>
   <si>
@@ -84,9 +66,6 @@
     <t>o_bcdcount' = "0000"</t>
   </si>
   <si>
-    <t>i_reset_n' = 0</t>
-  </si>
-  <si>
     <t>COUNTER_ROLLOVER_01</t>
   </si>
   <si>
@@ -96,12 +75,6 @@
     <t>Check if 'o_bcdcount' is set to "0000" when 'o_bcdcount' = ROLLOVER_COUNT + 1</t>
   </si>
   <si>
-    <t>i_rtcclk', 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1</t>
-  </si>
-  <si>
-    <t>Increment 'o_bcdcount' to ROLLOVER_COUNT, then set 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1 and pulse the input clock</t>
-  </si>
-  <si>
     <t>COUNTER_ROLLOVER_02</t>
   </si>
   <si>
@@ -147,9 +120,6 @@
     <t>Check that ‘o_bcdcount’ gets incremented on the rising edge of ‘i_rtcclk’ when ‘i_countenb’ and ‘i_latchcount’ are set to 1</t>
   </si>
   <si>
-    <t>set 'i_countenb' to 1, 'i_latchcount' to 1 and pulse 'i_rtcclk'</t>
-  </si>
-  <si>
     <t>o_bcdcount' gets incremented</t>
   </si>
   <si>
@@ -201,55 +171,97 @@
     <t>COUNTER_TC_15</t>
   </si>
   <si>
-    <t>i_countenb' of every counter is connectedto the flag output 'o_rolloverflag' of the previous counter</t>
-  </si>
-  <si>
-    <t>observe the port mapping</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>o_count'[3:0] is connected to 'o_bcdcount0'</t>
   </si>
   <si>
-    <t>o_count'[7:4] is connected to 'o_bcdcount0'</t>
-  </si>
-  <si>
-    <t>o_count'[11:8] is connected to 'o_bcdcount0'</t>
-  </si>
-  <si>
-    <t>o_count'[15:12] is connected to 'o_bcdcount0'</t>
-  </si>
-  <si>
-    <t>o_count'[19:16] is connected to 'o_bcdcount0'</t>
-  </si>
-  <si>
-    <t>o_count'[23:20] is connected to 'o_bcdcount0'</t>
-  </si>
-  <si>
     <t>Check that ‘o_count’ gets incremented on the rising edge of ‘i_rtcclk’ when ‘i_countenb’ and ‘i_latchcount’ are set to 1</t>
   </si>
   <si>
     <t>Check that 'o_count' is set to X"000000" when it increments past X"595999"</t>
   </si>
   <si>
-    <t>Increment 'o_count' to X"595999", then set 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1 and pulse the input clock</t>
-  </si>
-  <si>
     <t>o_count' = X"000000"</t>
   </si>
   <si>
-    <t>Check if 'o_bcdcount' is set to "0000" when 'i_reset_n' is set to 0</t>
-  </si>
-  <si>
-    <t>Check if 'o_count' is set to X"000000" when 'i_reset_n' is set to 0</t>
-  </si>
-  <si>
-    <t>set 'i_reset_n' to 1, increment 'o_count' then after 10 ns set 'i_reset_n' to 0</t>
-  </si>
-  <si>
-    <t>set 'i_reset_n' to 1, increment 'o_bcdcount' then after 10 ns set 'i_reset_n' to 0</t>
+    <t>Check if 'o_bcdcount' is set to "0000" when 'i_resetn' is set to 0</t>
+  </si>
+  <si>
+    <t>set 'i_resetn' to 1, increment 'o_bcdcount' then after 10 ns set 'i_resetn' to 0</t>
+  </si>
+  <si>
+    <t>i_resetn' = 0</t>
+  </si>
+  <si>
+    <t>Check if 'o_count' is set to X"000000" when 'i_resetn' is set to 0</t>
+  </si>
+  <si>
+    <t>set 'i_resetn' to 1, increment 'o_count' then after 10 ns set 'i_resetn' to 0</t>
+  </si>
+  <si>
+    <t>UnitUnder Test</t>
+  </si>
+  <si>
+    <t>rtc_counter</t>
+  </si>
+  <si>
+    <t>Increment 'o_bcdcount' to ROLLOVER_COUNT, then set 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1 and wait for 10 ms</t>
+  </si>
+  <si>
+    <t>set 'i_countenb' to 1, 'i_latchcount' to 1 and wait for 10 ms</t>
+  </si>
+  <si>
+    <t>Increment 'o_count' to X"595999", then set 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1 and wait for 10 ms</t>
+  </si>
+  <si>
+    <t>10 ms period clock 'i_rtcclk', 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1</t>
+  </si>
+  <si>
+    <t>observe 'o_count' nibbles and compare to the respective 'o_bcdcount'</t>
+  </si>
+  <si>
+    <t>i_countenb' of every counter is connected to the flag output 'o_rolloverflag' of the previous counter</t>
+  </si>
+  <si>
+    <t>observe 'i_countenb' and compare to the respective 'o_rolloverflag'</t>
+  </si>
+  <si>
+    <t>o_count'[3:0] = 'o_bcdcount0'</t>
+  </si>
+  <si>
+    <t>o_count'[7:4] is connected to 'o_bcdcount1'</t>
+  </si>
+  <si>
+    <t>o_count'[11:8] is connected to 'o_bcdcount2'</t>
+  </si>
+  <si>
+    <t>o_count'[15:12] is connected to 'o_bcdcount3'</t>
+  </si>
+  <si>
+    <t>o_count'[19:16] is connected to 'o_bcdcount4'</t>
+  </si>
+  <si>
+    <t>o_count'[23:20] is connected to 'o_bcdcount5'</t>
+  </si>
+  <si>
+    <t>o_count'[7:4] = 'o_bcdcount1'</t>
+  </si>
+  <si>
+    <t>o_count'[11:8] = 'o_bcdcount2'</t>
+  </si>
+  <si>
+    <t>o_count'[15:12] = 'o_bcdcount3'</t>
+  </si>
+  <si>
+    <t>o_count'[19:16] = 'o_bcdcount4'</t>
+  </si>
+  <si>
+    <t>o_count'[23:20] = 'o_bcdcount5'</t>
+  </si>
+  <si>
+    <t>icountenb' of every subcounter = previous 'o_rolloverflag' except first one 'i_countenb' from trigger detection</t>
   </si>
 </sst>
 </file>
@@ -299,12 +311,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -626,26 +635,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,28 +662,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -682,329 +694,344 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1012,6 +1039,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008B8F660E2FD5A4F9C25F557691C2E7B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="291a90324d5b7e405cdee1cca19d0e54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fe6e073-fbcf-4c9f-9467-c4294a786ad2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a3d94df2e09d7482e07420c2cba8fd2" ns2:_="">
     <xsd:import namespace="0fe6e073-fbcf-4c9f-9467-c4294a786ad2"/>
@@ -1157,22 +1199,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099A5288-121E-4A14-A6B4-83046D76B9FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1188,21 +1232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>